--- a/lab 1.xlsx
+++ b/lab 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="lab 1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="lab 4" sheetId="4" r:id="rId4"/>
     <sheet name="lab 5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="203">
   <si>
     <t xml:space="preserve">Solution: </t>
   </si>
@@ -1030,6 +1032,111 @@
   </si>
   <si>
     <t>F10*BINOMDIST(1,B10,D10,TRUE)</t>
+  </si>
+  <si>
+    <t>The probability of passing a student is 40% . Ten students were appeared in an exam.</t>
+  </si>
+  <si>
+    <t>compute the probability of number of pass student are</t>
+  </si>
+  <si>
+    <t>i)  exactly five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ii) less than two  </t>
+  </si>
+  <si>
+    <t>iii) more than six</t>
+  </si>
+  <si>
+    <t>iv) atleast four</t>
+  </si>
+  <si>
+    <t>v) atmost five</t>
+  </si>
+  <si>
+    <t>let k =no.of pass students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">here . We have </t>
+  </si>
+  <si>
+    <t xml:space="preserve">n = </t>
+  </si>
+  <si>
+    <t>i) Reqd. prob. = p  (x=5)  =</t>
+  </si>
+  <si>
+    <t>BINOMDIST(5,B9,D9,FALSE)</t>
+  </si>
+  <si>
+    <t>BINOMDIST(1,B9,D9,TRUE)</t>
+  </si>
+  <si>
+    <t>ii) Reqd. prob. = p  (x&lt;2)  =</t>
+  </si>
+  <si>
+    <t>iii) Reqd. prob. = p  (x&gt;6)  =</t>
+  </si>
+  <si>
+    <t>1-BINOMDIST(6,B9,D9,TRUE)</t>
+  </si>
+  <si>
+    <t>iv) Reqd. prob. = p  (x&gt;=4)  =</t>
+  </si>
+  <si>
+    <t>1-BINOMDIST(3,B9,D9,TRUE)</t>
+  </si>
+  <si>
+    <t>v) Reqd. prob. = p  (x&lt;=5)  =</t>
+  </si>
+  <si>
+    <t>BINOMDIST(5,B9,D9,TRUE)</t>
+  </si>
+  <si>
+    <t>fit Binomial Distribution to the following data.</t>
+  </si>
+  <si>
+    <t>Solution:-</t>
+  </si>
+  <si>
+    <t>let x = Number of Girl</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Exp. Fre.</t>
+  </si>
+  <si>
+    <t>Here, n =</t>
+  </si>
+  <si>
+    <t>we know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean = </t>
+  </si>
+  <si>
+    <t>n*p =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p= </t>
+  </si>
+  <si>
+    <t>C15/B15</t>
+  </si>
+  <si>
+    <t>B19/B16</t>
+  </si>
+  <si>
+    <t>No.of Girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frequency</t>
+  </si>
+  <si>
+    <t>B$17*BINOMDIST(A10,B$16,B$21,0)</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1120,13 +1227,59 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1137,7 +1290,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1185,19 +1338,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1213,6 +1357,62 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1526,15 +1726,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
@@ -1605,15 +1805,15 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -1787,15 +1987,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
@@ -1865,15 +2065,15 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9">
@@ -2215,16 +2415,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="5" t="s">
         <v>22</v>
       </c>
@@ -2338,11 +2538,11 @@
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2896,16 +3096,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4">
@@ -2980,16 +3180,16 @@
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
@@ -3206,8 +3406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3225,16 +3425,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="12" t="s">
@@ -3697,304 +3897,304 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="21"/>
-    <col min="3" max="3" width="14.42578125" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="2" width="9.140625" style="18"/>
+    <col min="3" max="3" width="14.42578125" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="18"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="18"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="18"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" s="23" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:9" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" s="20" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:9" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A8" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="16">
         <v>4</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>0.5</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="18" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="18" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <f>BINOMDIST(2,B10,D10,FALSE)</f>
         <v>0.375</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="18" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <f>BINOMDIST(1,B10,D10,0)</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="18" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="18">
         <f>1-BINOMDIST(0,B10,D10,TRUE)</f>
         <v>0.9375</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="18" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="18" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="18">
         <f>BINOMDIST(3,B10,D10,TRUE)</f>
         <v>0.9375</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="18" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="18">
         <f>1-BINOMDIST(1,B10,D10,1)</f>
         <v>0.6875</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="18">
         <f>BINOMDIST(1,B10,D10,TRUE)</f>
         <v>0.31250000000000006</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="18" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="22" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="18">
         <f>F10*BINOMDIST(3,B10,D10,FALSE)</f>
         <v>80.000000000000014</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="18" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="18">
         <f>F10*BINOMDIST(2,B10,D10,FALSE)</f>
         <v>120</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="18">
         <f>F10*(1-BINOMDIST(1,B10,D10,TRUE))</f>
         <v>220</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="18" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="18">
         <f>F10*BINOMDIST(1,B10,D10,TRUE)</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="18" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4013,4 +4213,669 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" s="28" customFormat="1">
+      <c r="A6" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="37">
+        <v>10</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36">
+        <f>BINOMDIST(5,B9,D9,FALSE)</f>
+        <v>0.20065812480000014</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36">
+        <f>BINOMDIST(1,B9,D9,TRUE)</f>
+        <v>4.6357401599999994E-2</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36">
+        <f>1-BINOMDIST(6,B9,D9,TRUE)</f>
+        <v>5.4761881599999951E-2</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36">
+        <f>1-BINOMDIST(3,B9,D9,TRUE)</f>
+        <v>0.61771939840000012</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36">
+        <f>BINOMDIST(5,B9,D9,TRUE)</f>
+        <v>0.83376138239999997</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <printOptions headings="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="40">
+        <v>0</v>
+      </c>
+      <c r="B3" s="40">
+        <v>5</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="40">
+        <v>1</v>
+      </c>
+      <c r="B4" s="40">
+        <v>21</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="40">
+        <v>2</v>
+      </c>
+      <c r="B5" s="40">
+        <v>30</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="40">
+        <v>3</v>
+      </c>
+      <c r="B6" s="40">
+        <v>28</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="40">
+        <v>4</v>
+      </c>
+      <c r="B7" s="40">
+        <v>6</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" s="28" customFormat="1">
+      <c r="A8" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="43">
+        <v>0</v>
+      </c>
+      <c r="B10" s="43">
+        <v>5</v>
+      </c>
+      <c r="C10" s="43">
+        <f>A10*B10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="45">
+        <f>B$17*BINOMDIST(A10,B$16,B$21,0)</f>
+        <v>4.5815976562499996</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="43">
+        <v>1</v>
+      </c>
+      <c r="B11" s="43">
+        <v>21</v>
+      </c>
+      <c r="C11" s="43">
+        <f t="shared" ref="C11:C15" si="0">A11*B11</f>
+        <v>21</v>
+      </c>
+      <c r="D11" s="45">
+        <f>B$17*BINOMDIST(A11,B$16,B$21,0)</f>
+        <v>20.255484375000002</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="43">
+        <v>2</v>
+      </c>
+      <c r="B12" s="43">
+        <v>30</v>
+      </c>
+      <c r="C12" s="43">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D12" s="45">
+        <f t="shared" ref="D11:D15" si="1">B$17*BINOMDIST(A12,B$16,B$21,0)</f>
+        <v>33.581460937500012</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="43">
+        <v>3</v>
+      </c>
+      <c r="B13" s="43">
+        <v>28</v>
+      </c>
+      <c r="C13" s="43">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="D13" s="45">
+        <f t="shared" si="1"/>
+        <v>24.744234375000005</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="43">
+        <v>4</v>
+      </c>
+      <c r="B14" s="43">
+        <v>6</v>
+      </c>
+      <c r="C14" s="43">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D14" s="45">
+        <f t="shared" si="1"/>
+        <v>6.8372226562500016</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44">
+        <f>SUM(B10:B14)</f>
+        <v>90</v>
+      </c>
+      <c r="C15" s="44">
+        <f>SUM(C10:C14)</f>
+        <v>189</v>
+      </c>
+      <c r="D15" s="46">
+        <f>SUM(D10:D14)</f>
+        <v>90.000000000000028</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="17">
+        <v>4</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="17">
+        <f>B15</f>
+        <v>90</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="17">
+        <f>C15/B15</f>
+        <v>2.1</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="17">
+        <f>B19</f>
+        <v>2.1</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="17">
+        <f>B19/B16</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <printOptions headings="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/lab 1.xlsx
+++ b/lab 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="lab 1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet5" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="245">
   <si>
     <t xml:space="preserve">Solution: </t>
   </si>
@@ -1138,12 +1140,193 @@
   <si>
     <t>B$17*BINOMDIST(A10,B$16,B$21,0)</t>
   </si>
+  <si>
+    <t>income distribuition of 10000 workers of a M.K factory follows Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution wirh Mean 50000 and SD 5000. find the probability that </t>
+  </si>
+  <si>
+    <t>income of randomly selected worker lies         i) below 60000</t>
+  </si>
+  <si>
+    <t>ii. Above 55000</t>
+  </si>
+  <si>
+    <t>iii. Between 55000 to 70000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also  find number of worker whose income lies </t>
+  </si>
+  <si>
+    <t>i. Below 55000</t>
+  </si>
+  <si>
+    <t>iii. Between 45000 and 60000</t>
+  </si>
+  <si>
+    <t>solution ;- let X = income of a worker</t>
+  </si>
+  <si>
+    <t>Here, we have</t>
+  </si>
+  <si>
+    <r>
+      <t>Mean (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>μ) =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SD(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)=</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">N= </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First part </t>
+  </si>
+  <si>
+    <t>i) Req. prob. = p(x&lt;60000) =</t>
+  </si>
+  <si>
+    <t>NORMDIST(60000,B9,D9,1)</t>
+  </si>
+  <si>
+    <t>ii) Req.prob. = p(x&gt;55000)=</t>
+  </si>
+  <si>
+    <t>1-NORMDIST(55000,B9,D9,1)</t>
+  </si>
+  <si>
+    <t>ii) Req.prob. = p(55000&lt;x&lt;70000)=</t>
+  </si>
+  <si>
+    <t>NORMDIST(70000,B9,E9,1)-NORMDIST(55000,B9,E9,1)</t>
+  </si>
+  <si>
+    <t>second part</t>
+  </si>
+  <si>
+    <t>i) Req. Number = N* p(x&lt;55000) =</t>
+  </si>
+  <si>
+    <t>G9*NORMDIST(55000,B9,E9,1)</t>
+  </si>
+  <si>
+    <t>i) Req. Number = N* p(x&lt;57500) =</t>
+  </si>
+  <si>
+    <t>ii. Above 57500</t>
+  </si>
+  <si>
+    <t>G9*(1-NORMDIST(57500,B9,E9,1))</t>
+  </si>
+  <si>
+    <t>i) Req. Number = N* p(45000&lt;x&lt;60000) =</t>
+  </si>
+  <si>
+    <t>G9*((NORMDIST(60000,B9,E9,1)-(NORMDIST(45000,B9,E9,1))))</t>
+  </si>
+  <si>
+    <t>Mark distribution of students follows Normal distriburtion with mean 50 and SD 10</t>
+  </si>
+  <si>
+    <t>Find the probability that mark of randomly selected student lies</t>
+  </si>
+  <si>
+    <t>i) below 55</t>
+  </si>
+  <si>
+    <t>ii) Above 40</t>
+  </si>
+  <si>
+    <t>iii) Between 47 and 55</t>
+  </si>
+  <si>
+    <t>solution:- Let  X=Marks</t>
+  </si>
+  <si>
+    <r>
+      <t>Mean(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>m) =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SD(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">σ) = </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">For i) Req.prob = p(x&lt;55) = </t>
+  </si>
+  <si>
+    <t>NORMDIST(55,B6,D6,1)</t>
+  </si>
+  <si>
+    <t>1-NORMDIST(40,B6,D6,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For ii) Req.prob = p(x&lt;40) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For iii) Req.prob = p(47&lt;x&lt;55) = </t>
+  </si>
+  <si>
+    <t>NORMDIST(55,B6,D6,1)-NORMDIST(47,B6,D6,1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,6 +1371,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1290,7 +1486,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1358,6 +1554,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1373,47 +1601,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1726,15 +1926,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
@@ -1805,15 +2005,15 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -1969,6 +2169,102 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="23" customFormat="1">
+      <c r="A4" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7">
+        <f>NORMDIST(55,B6,D6,1)</f>
+        <v>0.69146246127401312</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8">
+        <f>1-NORMDIST(40,B6,D6,1)</f>
+        <v>0.84134474606854293</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9">
+        <f>NORMDIST(55,B6,D6,1)-NORMDIST(47,B6,D6,1)</f>
+        <v>0.30937388346296568</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1987,15 +2283,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
@@ -2065,15 +2361,15 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9">
@@ -2415,16 +2711,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="5" t="s">
         <v>22</v>
       </c>
@@ -2538,11 +2834,11 @@
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3096,16 +3392,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4">
@@ -3180,16 +3476,16 @@
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
@@ -3425,16 +3721,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="12" t="s">
@@ -3909,109 +4205,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
       <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" s="20" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:9" s="21" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="16" t="s">
@@ -4226,229 +4522,236 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="29"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="29"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="29"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:10" s="28" customFormat="1">
-      <c r="A6" s="30" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:10" s="23" customFormat="1">
+      <c r="A6" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="30">
         <v>10</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="30">
         <v>0.4</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="29">
         <f>BINOMDIST(5,B9,D9,FALSE)</f>
         <v>0.20065812480000014</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="29">
         <f>BINOMDIST(1,B9,D9,TRUE)</f>
         <v>4.6357401599999994E-2</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="29">
         <f>1-BINOMDIST(6,B9,D9,TRUE)</f>
         <v>5.4761881599999951E-2</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="29">
         <f>1-BINOMDIST(3,B9,D9,TRUE)</f>
         <v>0.61771939840000012</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="29">
         <f>BINOMDIST(5,B9,D9,TRUE)</f>
         <v>0.83376138239999997</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:B8"/>
@@ -4456,13 +4759,6 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4474,8 +4770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4485,127 +4781,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="40">
+      <c r="A3" s="33">
         <v>0</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="33">
         <v>5</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="40">
+      <c r="A4" s="33">
         <v>1</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="33">
         <v>21</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="40">
+      <c r="A5" s="33">
         <v>2</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="33">
         <v>30</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="40">
+      <c r="A6" s="33">
         <v>3</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="33">
         <v>28</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="40">
+      <c r="A7" s="33">
         <v>4</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="33">
         <v>6</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="1:9" s="28" customFormat="1">
-      <c r="A8" s="28" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:9" s="23" customFormat="1">
+      <c r="A8" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="23" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="35" t="s">
         <v>192</v>
       </c>
       <c r="E9" s="17"/>
@@ -4615,17 +4911,17 @@
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="43">
+      <c r="A10" s="35">
         <v>0</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="35">
         <v>5</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="35">
         <f>A10*B10</f>
         <v>0</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="37">
         <f>B$17*BINOMDIST(A10,B$16,B$21,0)</f>
         <v>4.5815976562499996</v>
       </c>
@@ -4638,17 +4934,17 @@
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="43">
+      <c r="A11" s="35">
         <v>1</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="35">
         <v>21</v>
       </c>
-      <c r="C11" s="43">
-        <f t="shared" ref="C11:C15" si="0">A11*B11</f>
+      <c r="C11" s="35">
+        <f t="shared" ref="C11:C14" si="0">A11*B11</f>
         <v>21</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="37">
         <f>B$17*BINOMDIST(A11,B$16,B$21,0)</f>
         <v>20.255484375000002</v>
       </c>
@@ -4659,18 +4955,18 @@
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="43">
+      <c r="A12" s="35">
         <v>2</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="35">
         <v>30</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="35">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D12" s="45">
-        <f t="shared" ref="D11:D15" si="1">B$17*BINOMDIST(A12,B$16,B$21,0)</f>
+      <c r="D12" s="37">
+        <f t="shared" ref="D12:D14" si="1">B$17*BINOMDIST(A12,B$16,B$21,0)</f>
         <v>33.581460937500012</v>
       </c>
       <c r="E12" s="17"/>
@@ -4680,17 +4976,17 @@
       <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="43">
+      <c r="A13" s="35">
         <v>3</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="35">
         <v>28</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="35">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="37">
         <f t="shared" si="1"/>
         <v>24.744234375000005</v>
       </c>
@@ -4701,17 +4997,17 @@
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="43">
+      <c r="A14" s="35">
         <v>4</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="35">
         <v>6</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="35">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="37">
         <f t="shared" si="1"/>
         <v>6.8372226562500016</v>
       </c>
@@ -4722,16 +5018,16 @@
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36">
         <f>SUM(B10:B14)</f>
         <v>90</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="36">
         <f>SUM(C10:C14)</f>
         <v>189</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="38">
         <f>SUM(D10:D14)</f>
         <v>90.000000000000028</v>
       </c>
@@ -4748,7 +5044,7 @@
       <c r="B16" s="17">
         <v>4</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -4764,7 +5060,7 @@
         <f>B15</f>
         <v>90</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -4777,7 +5073,7 @@
         <v>194</v>
       </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="39"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -4793,7 +5089,7 @@
         <f>C15/B15</f>
         <v>2.1</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="32" t="s">
         <v>198</v>
       </c>
       <c r="D19" s="17"/>
@@ -4811,7 +5107,7 @@
         <f>B19</f>
         <v>2.1</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -4827,7 +5123,7 @@
         <f>B19/B16</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="32" t="s">
         <v>199</v>
       </c>
       <c r="D21" s="17"/>
@@ -4840,7 +5136,7 @@
     <row r="22" spans="1:9">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="39"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -4878,4 +5174,223 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" s="23" customFormat="1">
+      <c r="A7" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9">
+        <v>50000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9">
+        <v>5000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11">
+        <f>NORMDIST(60000,B9,E9,1)</f>
+        <v>0.97724986805182068</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12">
+        <f>1-NORMDIST(55000,B9,E9,1)</f>
+        <v>0.15865525393145707</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13">
+        <f>NORMDIST(70000,B9,E9,1)-NORMDIST(55000,B9,E9,1)</f>
+        <v>0.15862358268962029</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="50">
+        <f>G9*NORMDIST(55000,B9,E9,1)</f>
+        <v>8413.4474606854292</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="50">
+        <f>G9*(1-NORMDIST(57500,B9,E9,1))</f>
+        <v>668.0720126885808</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="50">
+        <f>G9*((NORMDIST(60000,B9,E9,1)-(NORMDIST(45000,B9,E9,1))))</f>
+        <v>8185.9461412036362</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/lab 1.xlsx
+++ b/lab 1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neuu\BusinessStat-main\BusinessStat-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="lab 1" sheetId="1" r:id="rId1"/>
@@ -17,13 +22,14 @@
     <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet4" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet5" sheetId="10" r:id="rId10"/>
+    <sheet name="revision" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="280">
   <si>
     <t xml:space="preserve">Solution: </t>
   </si>
@@ -1320,13 +1326,340 @@
   </si>
   <si>
     <t>NORMDIST(55,B6,D6,1)-NORMDIST(47,B6,D6,1)</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>mv(x)</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <r>
+      <t>Compute Mean,Mode, Median, Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,SD, QD,CV, S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(P), and K from given data.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean=</t>
+  </si>
+  <si>
+    <t>Mode=</t>
+  </si>
+  <si>
+    <t>Median=</t>
+  </si>
+  <si>
+    <t>SD=</t>
+  </si>
+  <si>
+    <t>QD =</t>
+  </si>
+  <si>
+    <t>CV=</t>
+  </si>
+  <si>
+    <t>K=</t>
+  </si>
+  <si>
+    <t>H15/B15</t>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(P)=</t>
+    </r>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>40-50</t>
+  </si>
+  <si>
+    <t>D12+(B12-B11)/(2*B12-B11-B13)*F12</t>
+  </si>
+  <si>
+    <t>D12+(B19-C11)/B12*F12</t>
+  </si>
+  <si>
+    <t>D12+(B20-C11)/B12*F12</t>
+  </si>
+  <si>
+    <t>D13+(B21-C12)/B13*F13</t>
+  </si>
+  <si>
+    <t>50-60</t>
+  </si>
+  <si>
+    <t>D11+(B22-C10)/B11*F11</t>
+  </si>
+  <si>
+    <t>D14+(B23-C13)/B14*F14</t>
+  </si>
+  <si>
+    <t>SQRT(I15/B15-(H15/B15)^2)</t>
+  </si>
+  <si>
+    <t>(D21-D20)/2</t>
+  </si>
+  <si>
+    <t>D24/D17*100</t>
+  </si>
+  <si>
+    <t>(D17-D18)/D24</t>
+  </si>
+  <si>
+    <t>(D21-D20)/(2*(D23-D22))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1386,7 +1719,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1441,6 +1774,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1486,7 +1837,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1586,6 +1937,10 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1601,19 +1956,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1621,6 +1980,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1667,7 +2034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1699,9 +2066,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1733,6 +2101,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1908,14 +2277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
@@ -1925,21 +2294,21 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>20</v>
       </c>
@@ -1965,7 +2334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>9</v>
       </c>
@@ -1991,7 +2360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2001,21 +2370,21 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2026,7 +2395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2038,7 +2407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2050,7 +2419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2062,7 +2431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2074,7 +2443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2086,7 +2455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18">
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2098,7 +2467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2110,7 +2479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18">
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2122,7 +2491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18">
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2134,7 +2503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18">
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2146,7 +2515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18">
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2173,26 +2542,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>233</v>
       </c>
@@ -2203,17 +2572,17 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1">
+    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>237</v>
       </c>
@@ -2227,7 +2596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -2235,31 +2604,31 @@
         <f>NORMDIST(55,B6,D6,1)</f>
         <v>0.69146246127401312</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="41" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>242</v>
       </c>
       <c r="D8">
         <f>1-NORMDIST(40,B6,D6,1)</f>
-        <v>0.84134474606854293</v>
-      </c>
-      <c r="E8" s="49" t="s">
+        <v>0.84134474606854304</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>243</v>
       </c>
       <c r="D9">
         <f>NORMDIST(55,B6,D6,1)-NORMDIST(47,B6,D6,1)</f>
-        <v>0.30937388346296568</v>
-      </c>
-      <c r="E9" s="49" t="s">
+        <v>0.30937388346296579</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2268,35 +2637,521 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f>B10</f>
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <f>E10-D10</f>
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <f>(E10+D10)/2</f>
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <f>B10*G10</f>
+        <v>75</v>
+      </c>
+      <c r="I10">
+        <f>H10*G10</f>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="57">
+        <v>15</v>
+      </c>
+      <c r="C11" s="57">
+        <f>C10+B11</f>
+        <v>20</v>
+      </c>
+      <c r="D11" s="57">
+        <v>20</v>
+      </c>
+      <c r="E11" s="57">
+        <v>30</v>
+      </c>
+      <c r="F11" s="57">
+        <f t="shared" ref="F11:F14" si="0">E11-D11</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="57">
+        <f t="shared" ref="G11:G14" si="1">(E11+D11)/2</f>
+        <v>25</v>
+      </c>
+      <c r="H11" s="57">
+        <f t="shared" ref="H11:H14" si="2">B11*G11</f>
+        <v>375</v>
+      </c>
+      <c r="I11" s="57">
+        <f t="shared" ref="I11:I14" si="3">H11*G11</f>
+        <v>9375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="53">
+        <v>25</v>
+      </c>
+      <c r="C12" s="53">
+        <f t="shared" ref="C12:C14" si="4">C11+B12</f>
+        <v>45</v>
+      </c>
+      <c r="D12" s="53">
+        <v>30</v>
+      </c>
+      <c r="E12" s="53">
+        <v>40</v>
+      </c>
+      <c r="F12" s="53">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G12" s="53">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H12" s="53">
+        <f t="shared" si="2"/>
+        <v>875</v>
+      </c>
+      <c r="I12" s="53">
+        <f t="shared" si="3"/>
+        <v>30625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="55">
+        <v>20</v>
+      </c>
+      <c r="C13" s="55">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="D13" s="55">
+        <v>40</v>
+      </c>
+      <c r="E13" s="55">
+        <v>50</v>
+      </c>
+      <c r="F13" s="55">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G13" s="55">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H13" s="55">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="I13" s="55">
+        <f t="shared" si="3"/>
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="27">
+        <v>15</v>
+      </c>
+      <c r="C14" s="27">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="D14" s="27">
+        <v>50</v>
+      </c>
+      <c r="E14" s="27">
+        <v>60</v>
+      </c>
+      <c r="F14" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="27">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="H14" s="27">
+        <f t="shared" si="2"/>
+        <v>825</v>
+      </c>
+      <c r="I14" s="27">
+        <f t="shared" si="3"/>
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="41">
+        <f>SUM(B10:B14)</f>
+        <v>80</v>
+      </c>
+      <c r="H15" s="41">
+        <f>SUM(H10:H14)</f>
+        <v>3050</v>
+      </c>
+      <c r="I15" s="41">
+        <f>SUM(I10:I14)</f>
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17">
+        <f>H15/B15</f>
+        <v>38.125</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="I17" t="s">
+        <v>257</v>
+      </c>
+      <c r="J17">
+        <f>(D21-D20)/2</f>
+        <v>8.75</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="53">
+        <f>MAX(B10:B14)</f>
+        <v>25</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="53">
+        <f>D12+(B12-B11)/(2*B12-B11-B13)*F12</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="J18" s="53">
+        <f>D24/D17*100</f>
+        <v>30.361080618773993</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="53">
+        <f>B15/2</f>
+        <v>40</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="53">
+        <f>D12+(B19-C11)/B12*F12</f>
+        <v>38</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="J19" s="53">
+        <f>(D17-D18)/D24</f>
+        <v>0.12598815766974261</v>
+      </c>
+      <c r="K19" s="52" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" s="53">
+        <f>B15/4</f>
+        <v>20</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="53">
+        <f>D12+(B20-C11)/B12*F12</f>
+        <v>30</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="I20" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="J20" s="53">
+        <f>(D21-D20)/(2*(D23-D22))</f>
+        <v>0.26785714285714285</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="B21" s="55">
+        <f>3*B15/4</f>
+        <v>60</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="55">
+        <f>D13+(B21-C12)/B13*F13</f>
+        <v>47.5</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="57">
+        <f>B15/10</f>
+        <v>8</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="57">
+        <f>D11+(B22-C10)/B11*F11</f>
+        <v>22</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" s="27">
+        <f>90*B15/100</f>
+        <v>72</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" s="27">
+        <f>D14+(B23-C13)/B14*F14</f>
+        <v>54.666666666666664</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24">
+        <f>SQRT(I15/B15-(H15/B15)^2)</f>
+        <v>11.575161985907584</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45</v>
       </c>
@@ -2321,7 +3176,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>90</v>
       </c>
@@ -2346,7 +3201,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2357,22 +3212,22 @@
       <c r="H4" s="7"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2389,7 +3244,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2407,7 +3262,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2425,7 +3280,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2443,7 +3298,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2461,7 +3316,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="18">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2479,7 +3334,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="18">
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2497,7 +3352,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2515,7 +3370,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="18">
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2533,7 +3388,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="18">
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2551,7 +3406,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="18">
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2569,7 +3424,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="18">
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2587,7 +3442,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2598,7 +3453,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2609,7 +3464,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2620,7 +3475,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2631,7 +3486,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2642,7 +3497,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2653,7 +3508,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2664,7 +3519,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2675,7 +3530,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2698,34 +3553,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
       <c r="I1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -2740,7 +3595,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2755,7 +3610,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -2770,7 +3625,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -2785,7 +3640,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -2800,7 +3655,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -2815,7 +3670,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -2830,22 +3685,22 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2872,7 +3727,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -2902,7 +3757,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>43</v>
       </c>
@@ -2932,7 +3787,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
@@ -2962,7 +3817,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>46</v>
       </c>
@@ -2992,7 +3847,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -3022,7 +3877,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -3052,7 +3907,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="8">
         <f>SUM(B11:B16)</f>
@@ -3069,7 +3924,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3083,7 +3938,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -3104,7 +3959,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3122,7 +3977,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
@@ -3145,7 +4000,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>6</v>
       </c>
@@ -3168,7 +4023,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="18">
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>8</v>
       </c>
@@ -3191,7 +4046,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="18">
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>9</v>
       </c>
@@ -3214,7 +4069,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="18">
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
@@ -3237,7 +4092,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="18">
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>11</v>
       </c>
@@ -3260,7 +4115,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="18">
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>12</v>
       </c>
@@ -3278,7 +4133,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="18">
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3291,7 +4146,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3302,7 +4157,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3313,7 +4168,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3324,7 +4179,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3335,7 +4190,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3346,7 +4201,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3369,14 +4224,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="4" customWidth="1"/>
@@ -3386,24 +4241,24 @@
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I2" s="13">
         <v>5554</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>15</v>
       </c>
@@ -3432,7 +4287,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45</v>
       </c>
@@ -3461,7 +4316,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -3472,22 +4327,22 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>73</v>
       </c>
@@ -3507,7 +4362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>76</v>
       </c>
@@ -3529,7 +4384,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3551,7 +4406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -3563,7 +4418,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18">
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>79</v>
       </c>
@@ -3585,7 +4440,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18">
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -3607,7 +4462,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18">
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -3629,7 +4484,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -3651,7 +4506,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>78</v>
       </c>
@@ -3663,7 +4518,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>80</v>
       </c>
@@ -3675,7 +4530,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
@@ -3699,14 +4554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="12"/>
     <col min="2" max="2" width="10" style="12" customWidth="1"/>
@@ -3715,24 +4570,24 @@
     <col min="6" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="13">
         <v>5554</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" ht="30">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>106</v>
       </c>
@@ -3740,7 +4595,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>108</v>
       </c>
@@ -3748,7 +4603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>64</v>
       </c>
@@ -3756,7 +4611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>45</v>
       </c>
@@ -3764,7 +4619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>46</v>
       </c>
@@ -3772,7 +4627,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
@@ -3780,7 +4635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>48</v>
       </c>
@@ -3788,7 +4643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>106</v>
       </c>
@@ -3817,7 +4672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>108</v>
       </c>
@@ -3850,7 +4705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>64</v>
       </c>
@@ -3883,7 +4738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -3916,7 +4771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
@@ -3949,7 +4804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>47</v>
       </c>
@@ -3982,7 +4837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>48</v>
       </c>
@@ -4015,7 +4870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <f>SUM(B12:B17)</f>
         <v>100</v>
@@ -4029,7 +4884,7 @@
         <v>103500</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>2</v>
       </c>
@@ -4046,7 +4901,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>117</v>
       </c>
@@ -4065,7 +4920,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>118</v>
       </c>
@@ -4084,7 +4939,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>119</v>
       </c>
@@ -4103,7 +4958,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>120</v>
       </c>
@@ -4115,7 +4970,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>132</v>
       </c>
@@ -4132,7 +4987,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>121</v>
       </c>
@@ -4144,7 +4999,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>78</v>
       </c>
@@ -4156,22 +5011,22 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>131</v>
       </c>
@@ -4190,126 +5045,126 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="18"/>
     <col min="3" max="3" width="14.42578125" style="18" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" s="20" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:9" s="21" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A8" s="43" t="s">
+    <row r="7" spans="1:9" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="41" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>140</v>
       </c>
@@ -4329,17 +5184,17 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>145</v>
       </c>
@@ -4351,29 +5206,29 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>145</v>
       </c>
       <c r="C15" s="18">
         <f>BINOMDIST(1,B10,D10,0)</f>
-        <v>0.25000000000000006</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="18" t="s">
         <v>145</v>
       </c>
@@ -4385,12 +5240,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>145</v>
       </c>
@@ -4402,12 +5257,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>145</v>
       </c>
@@ -4419,12 +5274,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>145</v>
       </c>
@@ -4436,24 +5291,24 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>159</v>
       </c>
       <c r="D26" s="18">
         <f>F10*BINOMDIST(3,B10,D10,FALSE)</f>
-        <v>80.000000000000014</v>
+        <v>80</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>161</v>
       </c>
@@ -4465,7 +5320,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>163</v>
       </c>
@@ -4477,12 +5332,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>166</v>
       </c>
@@ -4512,16 +5367,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -4532,61 +5387,61 @@
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="45" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="24"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -4594,7 +5449,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="24"/>
     </row>
-    <row r="6" spans="1:10" s="23" customFormat="1">
+    <row r="6" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>49</v>
       </c>
@@ -4608,24 +5463,24 @@
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -4634,7 +5489,7 @@
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>177</v>
       </c>
@@ -4653,15 +5508,15 @@
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="29">
         <f>BINOMDIST(5,B9,D9,FALSE)</f>
-        <v>0.20065812480000014</v>
+        <v>0.20065812480000006</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>179</v>
@@ -4671,12 +5526,12 @@
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="29">
         <f>BINOMDIST(1,B9,D9,TRUE)</f>
         <v>4.6357401599999994E-2</v>
@@ -4689,12 +5544,12 @@
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="29">
         <f>1-BINOMDIST(6,B9,D9,TRUE)</f>
         <v>5.4761881599999951E-2</v>
@@ -4707,12 +5562,12 @@
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="29">
         <f>1-BINOMDIST(3,B9,D9,TRUE)</f>
         <v>0.61771939840000012</v>
@@ -4725,12 +5580,12 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="29">
         <f>BINOMDIST(5,B9,D9,TRUE)</f>
         <v>0.83376138239999997</v>
@@ -4745,6 +5600,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A2:I2"/>
@@ -4752,13 +5614,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4767,33 +5622,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>200</v>
       </c>
@@ -4808,7 +5663,7 @@
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="33">
         <v>0</v>
       </c>
@@ -4823,7 +5678,7 @@
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>1</v>
       </c>
@@ -4838,7 +5693,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>2</v>
       </c>
@@ -4853,7 +5708,7 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>3</v>
       </c>
@@ -4868,7 +5723,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>4</v>
       </c>
@@ -4883,7 +5738,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
     </row>
-    <row r="8" spans="1:9" s="23" customFormat="1">
+    <row r="8" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>189</v>
       </c>
@@ -4891,7 +5746,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>191</v>
       </c>
@@ -4910,7 +5765,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>0</v>
       </c>
@@ -4933,7 +5788,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>1</v>
       </c>
@@ -4946,7 +5801,7 @@
       </c>
       <c r="D11" s="37">
         <f>B$17*BINOMDIST(A11,B$16,B$21,0)</f>
-        <v>20.255484375000002</v>
+        <v>20.255484374999995</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -4954,7 +5809,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>2</v>
       </c>
@@ -4967,7 +5822,7 @@
       </c>
       <c r="D12" s="37">
         <f t="shared" ref="D12:D14" si="1">B$17*BINOMDIST(A12,B$16,B$21,0)</f>
-        <v>33.581460937500012</v>
+        <v>33.581460937499997</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -4975,7 +5830,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>3</v>
       </c>
@@ -4988,7 +5843,7 @@
       </c>
       <c r="D13" s="37">
         <f t="shared" si="1"/>
-        <v>24.744234375000005</v>
+        <v>24.744234375000001</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -4996,7 +5851,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>4</v>
       </c>
@@ -5017,7 +5872,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="36">
         <f>SUM(B10:B14)</f>
@@ -5029,7 +5884,7 @@
       </c>
       <c r="D15" s="38">
         <f>SUM(D10:D14)</f>
-        <v>90.000000000000028</v>
+        <v>90</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -5037,7 +5892,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>193</v>
       </c>
@@ -5052,7 +5907,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>142</v>
       </c>
@@ -5068,7 +5923,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>194</v>
       </c>
@@ -5081,7 +5936,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>195</v>
       </c>
@@ -5099,7 +5954,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>196</v>
       </c>
@@ -5115,7 +5970,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>197</v>
       </c>
@@ -5133,7 +5988,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="32"/>
@@ -5144,7 +5999,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -5155,7 +6010,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -5177,19 +6032,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>203</v>
       </c>
@@ -5202,7 +6057,7 @@
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>204</v>
       </c>
@@ -5215,7 +6070,7 @@
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>205</v>
       </c>
@@ -5228,7 +6083,7 @@
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="26" t="s">
         <v>206</v>
@@ -5243,7 +6098,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>208</v>
       </c>
@@ -5256,7 +6111,7 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="26" t="s">
         <v>209</v>
@@ -5273,17 +6128,17 @@
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
     </row>
-    <row r="7" spans="1:9" s="23" customFormat="1">
+    <row r="7" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -5303,88 +6158,88 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>217</v>
       </c>
       <c r="E11">
         <f>NORMDIST(60000,B9,E9,1)</f>
-        <v>0.97724986805182068</v>
-      </c>
-      <c r="F11" s="48" t="s">
+        <v>0.97724986805182079</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>219</v>
       </c>
       <c r="E12">
         <f>1-NORMDIST(55000,B9,E9,1)</f>
-        <v>0.15865525393145707</v>
-      </c>
-      <c r="F12" s="49" t="s">
+        <v>0.15865525393145696</v>
+      </c>
+      <c r="F12" s="41" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>221</v>
       </c>
       <c r="E13">
         <f>NORMDIST(70000,B9,E9,1)-NORMDIST(55000,B9,E9,1)</f>
-        <v>0.15862358268962029</v>
-      </c>
-      <c r="F13" s="49" t="s">
+        <v>0.15862358268962384</v>
+      </c>
+      <c r="F13" s="41" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="42">
         <f>G9*NORMDIST(55000,B9,E9,1)</f>
-        <v>8413.4474606854292</v>
-      </c>
-      <c r="F16" s="49" t="s">
+        <v>8413.447460685431</v>
+      </c>
+      <c r="F16" s="41" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>226</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="42">
         <f>G9*(1-NORMDIST(57500,B9,E9,1))</f>
         <v>668.0720126885808</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="41" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>229</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="42">
         <f>G9*((NORMDIST(60000,B9,E9,1)-(NORMDIST(45000,B9,E9,1))))</f>
-        <v>8185.9461412036362</v>
-      </c>
-      <c r="F18" s="49" t="s">
+        <v>8185.946141203638</v>
+      </c>
+      <c r="F18" s="41" t="s">
         <v>230</v>
       </c>
     </row>

--- a/lab 1.xlsx
+++ b/lab 1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neuu\BusinessStat-main\BusinessStat-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="lab 1" sheetId="1" r:id="rId1"/>
@@ -23,13 +18,15 @@
     <sheet name="Sheet4" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet5" sheetId="10" r:id="rId10"/>
     <sheet name="revision" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet6" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet7" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="322">
   <si>
     <t xml:space="preserve">Solution: </t>
   </si>
@@ -1653,13 +1650,208 @@
   </si>
   <si>
     <t>(D21-D20)/(2*(D23-D22))</t>
+  </si>
+  <si>
+    <t>Given data reperesents the sales of some product of a company.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of item </t>
+  </si>
+  <si>
+    <t>No.of days</t>
+  </si>
+  <si>
+    <t>if Y denotes the profit from sale of product and Marginal profit</t>
+  </si>
+  <si>
+    <t>Find the excpected profit, Variance of profit and Coefficient of profit</t>
+  </si>
+  <si>
+    <t>X = Number of item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solution: - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation table for various values </t>
+  </si>
+  <si>
+    <t>p(x)</t>
+  </si>
+  <si>
+    <t>x*p(x)</t>
+  </si>
+  <si>
+    <t>x2*p(x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E(x) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">v(x) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(x) = </t>
+  </si>
+  <si>
+    <t>SC =</t>
+  </si>
+  <si>
+    <r>
+      <t>E(x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) = </t>
+    </r>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>B19-B18^2</t>
+  </si>
+  <si>
+    <t>SQRT(B20)</t>
+  </si>
+  <si>
+    <t>B21/B18*100</t>
+  </si>
+  <si>
+    <t>Second Part</t>
+  </si>
+  <si>
+    <t>Here, Y = 40000X-250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now, E(Y) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">v(y) = </t>
+  </si>
+  <si>
+    <t>is Rs. 400 and fixed cost is 2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV(Y) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Y) = </t>
+  </si>
+  <si>
+    <t>B25*B18-B26</t>
+  </si>
+  <si>
+    <t>B25^2*B20</t>
+  </si>
+  <si>
+    <t>SQRT(B28)</t>
+  </si>
+  <si>
+    <t>B29/B27*100</t>
+  </si>
+  <si>
+    <t>Draw Box whisker plot.</t>
+  </si>
+  <si>
+    <t>Calculation for Box whisker plot</t>
+  </si>
+  <si>
+    <t>Q1 =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3 = </t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>QUARTILE(A2:H3,2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1837,7 +2029,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1953,18 +2145,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -1973,6 +2153,36 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1989,6 +2199,243 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="38"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Box Whisker</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.6111111111111108E-2"/>
+          <c:y val="0.30582385535141443"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.54380176436278793"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:hiLowLines/>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars/>
+          <c:downBars/>
+        </c:upDownBars>
+        <c:marker val="1"/>
+        <c:axId val="57432704"/>
+        <c:axId val="57434880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="57432704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57434880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57434880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57432704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2034,7 +2481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2066,10 +2513,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2101,7 +2547,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2277,14 +2722,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
@@ -2294,21 +2739,21 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="6">
         <v>20</v>
       </c>
@@ -2334,7 +2779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="6">
         <v>9</v>
       </c>
@@ -2360,7 +2805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2370,21 +2815,21 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2395,7 +2840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2407,7 +2852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2419,7 +2864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2431,7 +2876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2443,7 +2888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2455,7 +2900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2467,7 +2912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2479,7 +2924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2491,7 +2936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2503,7 +2948,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2515,7 +2960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="18">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2542,26 +2987,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>233</v>
       </c>
@@ -2572,17 +3017,17 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="23" customFormat="1">
       <c r="A4" s="23" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>237</v>
       </c>
@@ -2596,7 +3041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -2608,7 +3053,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>242</v>
       </c>
@@ -2620,7 +3065,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>243</v>
       </c>
@@ -2638,21 +3083,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>245</v>
       </c>
@@ -2660,15 +3105,15 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="47" t="s">
         <v>64</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -2676,7 +3121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2684,7 +3129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -2692,7 +3137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2700,12 +3145,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="23" customFormat="1">
       <c r="A8" s="23" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="17.25">
       <c r="A9" t="s">
         <v>247</v>
       </c>
@@ -2734,8 +3179,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="47" t="s">
         <v>64</v>
       </c>
       <c r="B10">
@@ -2768,109 +3213,109 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+    <row r="11" spans="1:9" s="53" customFormat="1">
+      <c r="A11" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="53">
         <v>15</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="53">
         <f>C10+B11</f>
         <v>20</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="53">
         <v>20</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="53">
         <v>30</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="53">
         <f t="shared" ref="F11:F14" si="0">E11-D11</f>
         <v>10</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="53">
         <f t="shared" ref="G11:G14" si="1">(E11+D11)/2</f>
         <v>25</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="53">
         <f t="shared" ref="H11:H14" si="2">B11*G11</f>
         <v>375</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="53">
         <f t="shared" ref="I11:I14" si="3">H11*G11</f>
         <v>9375</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+    <row r="12" spans="1:9" s="49" customFormat="1">
+      <c r="A12" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="49">
         <v>25</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="49">
         <f t="shared" ref="C12:C14" si="4">C11+B12</f>
         <v>45</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="49">
         <v>30</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="49">
         <v>40</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="49">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="49">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="49">
         <f t="shared" si="2"/>
         <v>875</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="49">
         <f t="shared" si="3"/>
         <v>30625</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+    <row r="13" spans="1:9" s="51" customFormat="1">
+      <c r="A13" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="51">
         <v>20</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="51">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="51">
         <v>40</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="51">
         <v>50</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="51">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="51">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="51">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="51">
         <f t="shared" si="3"/>
         <v>40500</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="27" customFormat="1">
       <c r="A14" s="27" t="s">
         <v>48</v>
       </c>
@@ -2904,7 +3349,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="41">
         <f>SUM(B10:B14)</f>
         <v>80</v>
@@ -2918,7 +3363,7 @@
         <v>127000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -2937,7 +3382,7 @@
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>253</v>
       </c>
@@ -2959,132 +3404,132 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+    <row r="18" spans="1:11" s="49" customFormat="1">
+      <c r="A18" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="49">
         <f>MAX(B10:B14)</f>
         <v>25</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="49">
         <f>D12+(B12-B11)/(2*B12-B11-B13)*F12</f>
         <v>36.666666666666664</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="J18" s="53">
+      <c r="J18" s="49">
         <f>D24/D17*100</f>
         <v>30.361080618773993</v>
       </c>
-      <c r="K18" s="52" t="s">
+      <c r="K18" s="48" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="53" t="s">
+    <row r="19" spans="1:11" s="49" customFormat="1" ht="18">
+      <c r="A19" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="49">
         <f>B15/2</f>
         <v>40</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="49">
         <f>D12+(B19-C11)/B12*F12</f>
         <v>38</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="I19" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="49">
         <f>(D17-D18)/D24</f>
         <v>0.12598815766974261</v>
       </c>
-      <c r="K19" s="52" t="s">
+      <c r="K19" s="48" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="53" t="s">
+    <row r="20" spans="1:11" s="49" customFormat="1" ht="18">
+      <c r="A20" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="49">
         <f>B15/4</f>
         <v>20</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="49">
         <f>D12+(B20-C11)/B12*F12</f>
         <v>30</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="49">
         <f>(D21-D20)/(2*(D23-D22))</f>
         <v>0.26785714285714285</v>
       </c>
-      <c r="K20" s="52" t="s">
+      <c r="K20" s="48" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="55" t="s">
+    <row r="21" spans="1:11" s="51" customFormat="1" ht="18">
+      <c r="A21" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="B21" s="55">
+      <c r="B21" s="51">
         <f>3*B15/4</f>
         <v>60</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="51">
         <f>D13+(B21-C12)/B13*F13</f>
         <v>47.5</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="52" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="57" t="s">
+    <row r="22" spans="1:11" s="53" customFormat="1" ht="18">
+      <c r="A22" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="53">
         <f>B15/10</f>
         <v>8</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="53">
         <f>D11+(B22-C10)/B11*F11</f>
         <v>22</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="54" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" s="27" customFormat="1" ht="18">
       <c r="A23" s="27" t="s">
         <v>264</v>
       </c>
@@ -3092,18 +3537,18 @@
         <f>90*B15/100</f>
         <v>72</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="50" t="s">
         <v>272</v>
       </c>
       <c r="D23" s="27">
         <f>D14+(B23-C13)/B14*F14</f>
         <v>54.666666666666664</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="50" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>256</v>
       </c>
@@ -3123,35 +3568,686 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="43">
+        <v>10</v>
+      </c>
+      <c r="B3" s="43">
+        <v>5</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="43">
+        <v>20</v>
+      </c>
+      <c r="B4" s="43">
+        <v>15</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="43">
+        <v>30</v>
+      </c>
+      <c r="B5" s="43">
+        <v>20</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="43">
+        <v>40</v>
+      </c>
+      <c r="B6" s="43">
+        <v>7</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="43">
+        <v>50</v>
+      </c>
+      <c r="B7" s="43">
+        <v>3</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+    </row>
+    <row r="8" spans="1:10" s="23" customFormat="1">
+      <c r="A8" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="43">
+        <v>10</v>
+      </c>
+      <c r="B11" s="43">
+        <v>5</v>
+      </c>
+      <c r="C11" s="46">
+        <f>B11/B$16</f>
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="46">
+        <f>A11*C11</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="46">
+        <f>D11*A11</f>
+        <v>10</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="43">
+        <v>20</v>
+      </c>
+      <c r="B12" s="43">
+        <v>15</v>
+      </c>
+      <c r="C12" s="46">
+        <f t="shared" ref="C12:C15" si="0">B12/B$16</f>
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="46">
+        <f t="shared" ref="D12:D15" si="1">A12*C12</f>
+        <v>6</v>
+      </c>
+      <c r="E12" s="46">
+        <f t="shared" ref="E12:E15" si="2">D12*A12</f>
+        <v>120</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="43">
+        <v>30</v>
+      </c>
+      <c r="B13" s="43">
+        <v>20</v>
+      </c>
+      <c r="C13" s="46">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="46">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E13" s="46">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="43">
+        <v>40</v>
+      </c>
+      <c r="B14" s="43">
+        <v>7</v>
+      </c>
+      <c r="C14" s="46">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D14" s="46">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="E14" s="46">
+        <f t="shared" si="2"/>
+        <v>224.00000000000003</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="43">
+        <v>50</v>
+      </c>
+      <c r="B15" s="43">
+        <v>3</v>
+      </c>
+      <c r="C15" s="46">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="D15" s="46">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="46">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="32">
+        <f>SUM(B11:B15)</f>
+        <v>50</v>
+      </c>
+      <c r="C16" s="32">
+        <f>SUM(C11:C15)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="32">
+        <f>SUM(D11:D15)</f>
+        <v>27.6</v>
+      </c>
+      <c r="E16" s="32">
+        <f>SUM(E11:E15)</f>
+        <v>864</v>
+      </c>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="45">
+        <f>D16</f>
+        <v>27.6</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="1:9" ht="17.25">
+      <c r="A19" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" s="45">
+        <f>E16</f>
+        <v>864</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20" s="45">
+        <f>B19-B18^2</f>
+        <v>102.2399999999999</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" s="45">
+        <f>SQRT(B20)</f>
+        <v>10.111379727811626</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>294</v>
+      </c>
+      <c r="B22" s="45">
+        <f>B21/B18*100</f>
+        <v>36.63543379641893</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>303</v>
+      </c>
+      <c r="B25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>304</v>
+      </c>
+      <c r="B26">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27">
+        <f>B25*B18-B26</f>
+        <v>8540</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B28">
+        <f>B25^2*B20</f>
+        <v>16358399.999999983</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>309</v>
+      </c>
+      <c r="B29">
+        <f>SQRT(B28)</f>
+        <v>4044.55189112465</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30">
+        <f>B29/B27*100</f>
+        <v>47.360092401927986</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>35</v>
+      </c>
+      <c r="G2">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="23" customFormat="1">
+      <c r="A4" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5">
+        <f>QUARTILE(A2:H3,1)</f>
+        <v>18.5</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18">
+      <c r="A6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6">
+        <f>MIN(A2:H3)</f>
+        <v>12</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7">
+        <f>QUARTILE(A2:H3,2)</f>
+        <v>25</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18">
+      <c r="A8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8">
+        <f>MAX(A2:H3)</f>
+        <v>52</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9">
+        <f>QUARTILE(A2:H3,3)</f>
+        <v>35</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:9" ht="18">
+      <c r="A1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>45</v>
       </c>
@@ -3176,7 +4272,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>90</v>
       </c>
@@ -3201,7 +4297,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -3212,22 +4308,22 @@
       <c r="H4" s="7"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3244,7 +4340,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3262,7 +4358,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -3280,7 +4376,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -3298,7 +4394,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3316,7 +4412,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3334,7 +4430,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -3352,7 +4448,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -3370,7 +4466,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -3388,7 +4484,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="18">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -3406,7 +4502,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="18">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -3424,7 +4520,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="18">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -3442,7 +4538,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3453,7 +4549,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3464,7 +4560,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3475,7 +4571,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3486,7 +4582,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3497,7 +4593,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3508,7 +4604,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3519,7 +4615,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3530,7 +4626,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3553,34 +4649,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:9" ht="18">
+      <c r="A1" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
       <c r="I1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -3595,7 +4691,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -3610,7 +4706,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -3625,7 +4721,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -3640,7 +4736,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,7 +4751,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -3670,7 +4766,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -3685,22 +4781,22 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -3727,7 +4823,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -3757,7 +4853,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="10" t="s">
         <v>43</v>
       </c>
@@ -3787,7 +4883,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
@@ -3817,7 +4913,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
         <v>46</v>
       </c>
@@ -3847,7 +4943,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -3877,7 +4973,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -3907,7 +5003,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="8">
         <f>SUM(B11:B16)</f>
@@ -3924,7 +5020,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3938,7 +5034,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -3959,7 +5055,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3977,7 +5073,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
@@ -4000,7 +5096,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="9" t="s">
         <v>6</v>
       </c>
@@ -4023,7 +5119,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="18">
       <c r="A23" s="7" t="s">
         <v>8</v>
       </c>
@@ -4046,7 +5142,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="18">
       <c r="A24" s="11" t="s">
         <v>9</v>
       </c>
@@ -4069,7 +5165,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="18">
       <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
@@ -4092,7 +5188,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="18">
       <c r="A26" s="9" t="s">
         <v>11</v>
       </c>
@@ -4115,7 +5211,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="18">
       <c r="A27" s="11" t="s">
         <v>12</v>
       </c>
@@ -4133,7 +5229,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="18">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -4146,7 +5242,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4157,7 +5253,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4168,7 +5264,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4179,7 +5275,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4190,7 +5286,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4201,7 +5297,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4224,14 +5320,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="4" customWidth="1"/>
@@ -4241,24 +5337,24 @@
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="I2" s="13">
         <v>5554</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:9" ht="18">
+      <c r="A3" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4">
         <v>15</v>
       </c>
@@ -4287,7 +5383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="4">
         <v>45</v>
       </c>
@@ -4316,7 +5412,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -4327,22 +5423,22 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>73</v>
       </c>
@@ -4362,7 +5458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>76</v>
       </c>
@@ -4384,7 +5480,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>77</v>
       </c>
@@ -4406,7 +5502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -4418,7 +5514,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18">
       <c r="A12" s="4" t="s">
         <v>79</v>
       </c>
@@ -4440,7 +5536,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="18">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -4462,7 +5558,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -4484,7 +5580,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -4506,7 +5602,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>78</v>
       </c>
@@ -4518,7 +5614,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="18">
       <c r="A17" s="4" t="s">
         <v>80</v>
       </c>
@@ -4530,7 +5626,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
@@ -4554,14 +5650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="12"/>
     <col min="2" max="2" width="10" style="12" customWidth="1"/>
@@ -4570,24 +5666,24 @@
     <col min="6" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="I1" s="13">
         <v>5554</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:9" ht="18">
+      <c r="A2" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+    </row>
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" s="12" t="s">
         <v>106</v>
       </c>
@@ -4595,7 +5691,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="12" t="s">
         <v>108</v>
       </c>
@@ -4603,7 +5699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="12" t="s">
         <v>64</v>
       </c>
@@ -4611,7 +5707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="12" t="s">
         <v>45</v>
       </c>
@@ -4619,7 +5715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
         <v>46</v>
       </c>
@@ -4627,7 +5723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
@@ -4635,7 +5731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="12" t="s">
         <v>48</v>
       </c>
@@ -4643,7 +5739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30">
       <c r="A11" s="12" t="s">
         <v>106</v>
       </c>
@@ -4672,7 +5768,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="12" t="s">
         <v>108</v>
       </c>
@@ -4705,7 +5801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="12" t="s">
         <v>64</v>
       </c>
@@ -4738,7 +5834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -4771,7 +5867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
@@ -4804,7 +5900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="12" t="s">
         <v>47</v>
       </c>
@@ -4837,7 +5933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="12" t="s">
         <v>48</v>
       </c>
@@ -4870,7 +5966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="B18" s="12">
         <f>SUM(B12:B17)</f>
         <v>100</v>
@@ -4884,7 +5980,7 @@
         <v>103500</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="12" t="s">
         <v>2</v>
       </c>
@@ -4901,7 +5997,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>117</v>
       </c>
@@ -4920,7 +6016,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="15" t="s">
         <v>118</v>
       </c>
@@ -4939,7 +6035,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
         <v>119</v>
       </c>
@@ -4958,7 +6054,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="12" t="s">
         <v>120</v>
       </c>
@@ -4970,7 +6066,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
         <v>132</v>
       </c>
@@ -4987,7 +6083,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="12" t="s">
         <v>121</v>
       </c>
@@ -4999,7 +6095,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="12" t="s">
         <v>78</v>
       </c>
@@ -5011,22 +6107,22 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
         <v>131</v>
       </c>
@@ -5045,126 +6141,126 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="18"/>
     <col min="3" max="3" width="14.42578125" style="18" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+    <row r="7" spans="1:9" s="20" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:9" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A8" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="16" t="s">
         <v>140</v>
       </c>
@@ -5184,17 +6280,17 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="18" t="s">
         <v>145</v>
       </c>
@@ -5206,12 +6302,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="18" t="s">
         <v>145</v>
       </c>
@@ -5223,12 +6319,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="18" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="C17" s="18" t="s">
         <v>145</v>
       </c>
@@ -5240,12 +6336,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="B19" s="18" t="s">
         <v>145</v>
       </c>
@@ -5257,12 +6353,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="B20" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="B21" s="18" t="s">
         <v>145</v>
       </c>
@@ -5274,12 +6370,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="B22" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="B23" s="18" t="s">
         <v>145</v>
       </c>
@@ -5291,12 +6387,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="22" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="18" t="s">
         <v>159</v>
       </c>
@@ -5308,7 +6404,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="18" t="s">
         <v>161</v>
       </c>
@@ -5320,7 +6416,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="18" t="s">
         <v>163</v>
       </c>
@@ -5332,12 +6428,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="B29" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="18" t="s">
         <v>166</v>
       </c>
@@ -5367,16 +6463,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -5387,61 +6483,61 @@
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="24"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -5449,7 +6545,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="24"/>
     </row>
-    <row r="6" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="23" customFormat="1">
       <c r="A6" s="25" t="s">
         <v>49</v>
       </c>
@@ -5463,24 +6559,24 @@
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -5489,7 +6585,7 @@
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="30" t="s">
         <v>177</v>
       </c>
@@ -5508,12 +6604,12 @@
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="29">
         <f>BINOMDIST(5,B9,D9,FALSE)</f>
         <v>0.20065812480000006</v>
@@ -5526,12 +6622,12 @@
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="29">
         <f>BINOMDIST(1,B9,D9,TRUE)</f>
         <v>4.6357401599999994E-2</v>
@@ -5544,12 +6640,12 @@
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="29">
         <f>1-BINOMDIST(6,B9,D9,TRUE)</f>
         <v>5.4761881599999951E-2</v>
@@ -5562,12 +6658,12 @@
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="29">
         <f>1-BINOMDIST(3,B9,D9,TRUE)</f>
         <v>0.61771939840000012</v>
@@ -5580,12 +6676,12 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="29">
         <f>BINOMDIST(5,B9,D9,TRUE)</f>
         <v>0.83376138239999997</v>
@@ -5600,6 +6696,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:B8"/>
@@ -5607,13 +6710,6 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5622,33 +6718,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="34" t="s">
         <v>200</v>
       </c>
@@ -5663,7 +6759,7 @@
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="33">
         <v>0</v>
       </c>
@@ -5678,7 +6774,7 @@
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="33">
         <v>1</v>
       </c>
@@ -5693,7 +6789,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="33">
         <v>2</v>
       </c>
@@ -5708,7 +6804,7 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="33">
         <v>3</v>
       </c>
@@ -5723,7 +6819,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="33">
         <v>4</v>
       </c>
@@ -5738,7 +6834,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
     </row>
-    <row r="8" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="23" customFormat="1">
       <c r="A8" s="23" t="s">
         <v>189</v>
       </c>
@@ -5746,7 +6842,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="35" t="s">
         <v>191</v>
       </c>
@@ -5765,7 +6861,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="35">
         <v>0</v>
       </c>
@@ -5788,7 +6884,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="35">
         <v>1</v>
       </c>
@@ -5809,7 +6905,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="35">
         <v>2</v>
       </c>
@@ -5830,7 +6926,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="35">
         <v>3</v>
       </c>
@@ -5851,7 +6947,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="35">
         <v>4</v>
       </c>
@@ -5872,7 +6968,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="35"/>
       <c r="B15" s="36">
         <f>SUM(B10:B14)</f>
@@ -5892,7 +6988,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="17" t="s">
         <v>193</v>
       </c>
@@ -5907,7 +7003,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="17" t="s">
         <v>142</v>
       </c>
@@ -5923,7 +7019,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="17" t="s">
         <v>194</v>
       </c>
@@ -5936,7 +7032,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="17" t="s">
         <v>195</v>
       </c>
@@ -5954,7 +7050,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="17" t="s">
         <v>196</v>
       </c>
@@ -5970,7 +7066,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="17" t="s">
         <v>197</v>
       </c>
@@ -5988,7 +7084,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="32"/>
@@ -5999,7 +7095,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -6010,7 +7106,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -6032,19 +7128,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="26" t="s">
         <v>203</v>
       </c>
@@ -6057,7 +7153,7 @@
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="26" t="s">
         <v>204</v>
       </c>
@@ -6070,7 +7166,7 @@
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="26" t="s">
         <v>205</v>
       </c>
@@ -6083,7 +7179,7 @@
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="26"/>
       <c r="B4" s="26" t="s">
         <v>206</v>
@@ -6098,7 +7194,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="26" t="s">
         <v>208</v>
       </c>
@@ -6111,7 +7207,7 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="26"/>
       <c r="B6" s="26" t="s">
         <v>209</v>
@@ -6128,17 +7224,17 @@
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
     </row>
-    <row r="7" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="23" customFormat="1">
       <c r="A7" s="23" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -6158,12 +7254,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -6178,7 +7274,7 @@
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>219</v>
       </c>
@@ -6190,7 +7286,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>221</v>
       </c>
@@ -6202,12 +7298,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>224</v>
       </c>
@@ -6219,7 +7315,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>226</v>
       </c>
@@ -6231,7 +7327,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>229</v>
       </c>
